--- a/declensions & conjugations.xlsx
+++ b/declensions & conjugations.xlsx
@@ -1524,15 +1524,15 @@
   </si>
   <si>
     <t xml:space="preserve">ā
+ena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ā
 āya</t>
   </si>
   <si>
     <t xml:space="preserve">āhi
 ābhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ā
-ena</t>
   </si>
   <si>
     <t xml:space="preserve">ehi
@@ -2095,8 +2095,7 @@
   </si>
   <si>
     <t xml:space="preserve">āsiṃsu
-āsuṃ
-āsimha</t>
+āsuṃ</t>
   </si>
   <si>
     <t xml:space="preserve">aor 3rd pl</t>
@@ -2305,8 +2304,8 @@
     <t xml:space="preserve">aor 1st sg</t>
   </si>
   <si>
-    <t xml:space="preserve">āsiṃha
-āsiṃhā</t>
+    <t xml:space="preserve">āsimha
+āsimhā</t>
   </si>
   <si>
     <t xml:space="preserve">aor 1st pl</t>
@@ -38864,8 +38863,8 @@
   </sheetPr>
   <dimension ref="A1:DK350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CM15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CQ19" activeCellId="0" sqref="CQ19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AX1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF7" activeCellId="0" sqref="BF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39999,7 +39998,7 @@
         <v>472</v>
       </c>
       <c r="BF6" s="40" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="BG6" s="54" t="s">
         <v>474</v>
@@ -40023,13 +40022,13 @@
         <v>472</v>
       </c>
       <c r="BR6" s="26" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BS6" s="41" t="s">
         <v>478</v>
       </c>
       <c r="BT6" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BU6" s="41" t="s">
         <v>480</v>
@@ -40038,7 +40037,7 @@
         <v>472</v>
       </c>
       <c r="BX6" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BY6" s="41" t="s">
         <v>480</v>
@@ -40049,7 +40048,7 @@
         <v>472</v>
       </c>
       <c r="CD6" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CE6" s="43" t="s">
         <v>481</v>
@@ -40527,7 +40526,7 @@
         <v>541</v>
       </c>
       <c r="BT8" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BU8" s="41" t="s">
         <v>542</v>
@@ -40536,7 +40535,7 @@
         <v>537</v>
       </c>
       <c r="BX8" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BY8" s="41" t="s">
         <v>542</v>
@@ -57467,7 +57466,7 @@
         <v>478</v>
       </c>
       <c r="BT94" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BU94" s="41" t="s">
         <v>480</v>
@@ -57881,7 +57880,7 @@
         <v>541</v>
       </c>
       <c r="BT96" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BU96" s="41" t="s">
         <v>542</v>
